--- a/Jogos_do_Dia/2023-11-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -688,16 +688,16 @@
         <v>1.91</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L2" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -754,13 +754,13 @@
         <v>3.08</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -893,13 +893,13 @@
         <v>2.89</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AF3" t="n">
         <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -969,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>1.95</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1032,13 +1032,13 @@
         <v>3.43</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
         <v>2.05</v>
@@ -1108,13 +1108,13 @@
         <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1171,13 +1171,13 @@
         <v>2.91</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AF5" t="n">
         <v>8</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2023-11-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -685,58 +685,58 @@
         <v>3.75</v>
       </c>
       <c r="H2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.88</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S2" t="n">
         <v>3.1</v>
       </c>
-      <c r="L2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.6</v>
-      </c>
       <c r="T2" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Z2" t="n">
         <v>1.69</v>
@@ -754,43 +754,43 @@
         <v>3.08</v>
       </c>
       <c r="AE2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG2" t="n">
         <v>2.08</v>
       </c>
-      <c r="AF2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1.96</v>
-      </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AL2" t="n">
         <v>2</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="3">
@@ -830,31 +830,31 @@
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="S3" t="n">
         <v>2.1</v>
@@ -863,25 +863,25 @@
         <v>1.7</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
         <v>1.66</v>
@@ -893,43 +893,43 @@
         <v>2.89</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="AF3" t="n">
         <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AL3" t="n">
         <v>2.1</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="4">
@@ -960,40 +960,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
         <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="S4" t="n">
         <v>1.95</v>
@@ -1002,19 +1002,19 @@
         <v>1.85</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="Z4" t="n">
         <v>2.19</v>
@@ -1032,43 +1032,43 @@
         <v>3.43</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AF4" t="n">
         <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AL4" t="n">
         <v>1.91</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="5">
@@ -1108,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="K5" t="n">
         <v>3.5</v>
@@ -1117,43 +1117,43 @@
         <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="S5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Z5" t="n">
         <v>1.67</v>
@@ -1171,43 +1171,43 @@
         <v>2.91</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AL5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM5" t="n">
         <v>2.1</v>
       </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>
